--- a/Code/Results/Cases/Case_1_134/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_134/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.1801830468922</v>
+        <v>13.39702695204629</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.555882870704164</v>
+        <v>4.826424032288462</v>
       </c>
       <c r="E2">
-        <v>9.456696378252493</v>
+        <v>15.29953210425981</v>
       </c>
       <c r="F2">
-        <v>18.505689255723</v>
+        <v>24.09637441667071</v>
       </c>
       <c r="G2">
-        <v>2.077872188799894</v>
+        <v>3.62838158689846</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.59279095031683</v>
+        <v>25.14538524329097</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.84764734945995</v>
+        <v>9.38455174203785</v>
       </c>
       <c r="L2">
-        <v>7.056061665011446</v>
+        <v>8.995172432436362</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.49127096248804</v>
+        <v>19.11109876479216</v>
       </c>
       <c r="O2">
-        <v>14.65519382538481</v>
+        <v>21.54334494811881</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.52305899558117</v>
+        <v>13.26120973801354</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.405234512954404</v>
+        <v>4.773473187966314</v>
       </c>
       <c r="E3">
-        <v>9.545222643517173</v>
+        <v>15.34637688742034</v>
       </c>
       <c r="F3">
-        <v>18.01262804991141</v>
+        <v>24.08495657781064</v>
       </c>
       <c r="G3">
-        <v>2.082436492972924</v>
+        <v>3.630152769164435</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.80427144121615</v>
+        <v>25.24686116641715</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.09796788672063</v>
+        <v>9.019965776533571</v>
       </c>
       <c r="L3">
-        <v>6.757471695129707</v>
+        <v>8.95440440055178</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.67864303726176</v>
+        <v>19.16886546286248</v>
       </c>
       <c r="O3">
-        <v>14.495166768649</v>
+        <v>21.58553290502056</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.10387283484217</v>
+        <v>13.17955095524031</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.309520116391655</v>
+        <v>4.740141756743833</v>
       </c>
       <c r="E4">
-        <v>9.60339263411892</v>
+        <v>15.37702445362298</v>
       </c>
       <c r="F4">
-        <v>17.71934659985462</v>
+        <v>24.08440438554046</v>
       </c>
       <c r="G4">
-        <v>2.08533113183505</v>
+        <v>3.631298933082036</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.94338562625375</v>
+        <v>25.31325041274173</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.61462901341762</v>
+        <v>8.786477531641742</v>
       </c>
       <c r="L4">
-        <v>6.570502861248868</v>
+        <v>8.930923566341594</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.79650814425685</v>
+        <v>19.20603834587882</v>
       </c>
       <c r="O4">
-        <v>14.40849749158823</v>
+        <v>21.6162277793832</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.92928590818306</v>
+        <v>13.14674492584801</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.269739991572035</v>
+        <v>4.726359121861639</v>
       </c>
       <c r="E5">
-        <v>9.628043382104149</v>
+        <v>15.38998831464046</v>
       </c>
       <c r="F5">
-        <v>17.60234263084143</v>
+        <v>24.08580511430234</v>
       </c>
       <c r="G5">
-        <v>2.086534343154999</v>
+        <v>3.631780797762531</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>16.00233727127198</v>
+        <v>25.34133173382632</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.41195645045434</v>
+        <v>8.688989173312718</v>
       </c>
       <c r="L5">
-        <v>6.493510463096958</v>
+        <v>8.921752427432427</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.84526424980696</v>
+        <v>19.22161627317682</v>
       </c>
       <c r="O5">
-        <v>14.37604147732531</v>
+        <v>21.62993890028468</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.90007459300345</v>
+        <v>13.14132692871768</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.263088710938684</v>
+        <v>4.724058642837074</v>
       </c>
       <c r="E6">
-        <v>9.632193386501529</v>
+        <v>15.39216965029219</v>
       </c>
       <c r="F6">
-        <v>17.58306959153903</v>
+        <v>24.0861359223823</v>
       </c>
       <c r="G6">
-        <v>2.086735575160471</v>
+        <v>3.631861705855918</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>16.01226084533279</v>
+        <v>25.34605667093494</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.37796095587304</v>
+        <v>8.672662578365129</v>
       </c>
       <c r="L6">
-        <v>6.48068110597965</v>
+        <v>8.920253783893644</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.85340443203934</v>
+        <v>19.22422896333383</v>
       </c>
       <c r="O6">
-        <v>14.37082340115282</v>
+        <v>21.63228819507953</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.10153326861218</v>
+        <v>13.17910657107664</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.308986722567991</v>
+        <v>4.739956679990371</v>
       </c>
       <c r="E7">
-        <v>9.603721269186916</v>
+        <v>15.37719736553157</v>
       </c>
       <c r="F7">
-        <v>17.71775830766137</v>
+        <v>24.08441669228034</v>
       </c>
       <c r="G7">
-        <v>2.08534726252855</v>
+        <v>3.631305371717693</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.94417159814752</v>
+        <v>25.31362496754988</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.61191868539111</v>
+        <v>8.785172128143257</v>
       </c>
       <c r="L7">
-        <v>6.569467599668996</v>
+        <v>8.930798262178916</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.7971627286941</v>
+        <v>19.20624669389917</v>
       </c>
       <c r="O7">
-        <v>14.40804826252866</v>
+        <v>21.61640782563157</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.95696745038788</v>
+        <v>13.34985842724061</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.504625358265837</v>
+        <v>4.808340345221598</v>
       </c>
       <c r="E8">
-        <v>9.486420352109572</v>
+        <v>15.31529350817324</v>
       </c>
       <c r="F8">
-        <v>18.33379856870141</v>
+        <v>24.09109850293584</v>
       </c>
       <c r="G8">
-        <v>2.079427116814136</v>
+        <v>3.628980144895835</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.66374397304156</v>
+        <v>25.17952712649094</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.59398191239869</v>
+        <v>9.260887199396581</v>
       </c>
       <c r="L8">
-        <v>6.953925284610918</v>
+        <v>8.980798374245865</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.55530215952773</v>
+        <v>19.13066381376541</v>
       </c>
       <c r="O8">
-        <v>14.5975829271987</v>
+        <v>21.55689574316291</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.50337634291316</v>
+        <v>13.69689917122133</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.861493409341498</v>
+        <v>4.935673501165703</v>
       </c>
       <c r="E9">
-        <v>9.287293293145279</v>
+        <v>15.20881769026218</v>
       </c>
       <c r="F9">
-        <v>19.61103091117624</v>
+        <v>24.15531759225307</v>
       </c>
       <c r="G9">
-        <v>2.068527249267562</v>
+        <v>3.624883682320098</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.19067908786354</v>
+        <v>24.94893003983947</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.33441295041963</v>
+        <v>10.11427561583976</v>
       </c>
       <c r="L9">
-        <v>7.709195752456151</v>
+        <v>9.090802784544538</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.10258787066643</v>
+        <v>18.99590934224728</v>
       </c>
       <c r="O9">
-        <v>15.0631074160628</v>
+        <v>21.47829250164346</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.55297341960117</v>
+        <v>13.95718562148002</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.105908285309251</v>
+        <v>5.024757296909018</v>
       </c>
       <c r="E10">
-        <v>9.16077194627168</v>
+        <v>15.1396332487134</v>
       </c>
       <c r="F10">
-        <v>20.58390642461086</v>
+        <v>24.23341180183943</v>
       </c>
       <c r="G10">
-        <v>2.060920045500995</v>
+        <v>3.622153558550631</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.89505245956062</v>
+        <v>24.79920754001747</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.49778110578331</v>
+        <v>10.68934854755453</v>
       </c>
       <c r="L10">
-        <v>8.370139117889524</v>
+        <v>9.178410630997348</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.78198122029699</v>
+        <v>18.90503285110371</v>
       </c>
       <c r="O10">
-        <v>15.46441957171947</v>
+        <v>21.4438662614571</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.01074455968977</v>
+        <v>14.07629656798166</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.212995352697718</v>
+        <v>5.064244450728441</v>
       </c>
       <c r="E11">
-        <v>9.107735071278004</v>
+        <v>15.11011246776109</v>
       </c>
       <c r="F11">
-        <v>21.03248544578419</v>
+        <v>24.2755716969759</v>
       </c>
       <c r="G11">
-        <v>2.057539014054303</v>
+        <v>3.620971640817033</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.77309894269609</v>
+        <v>24.73536510279935</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.0017823405418</v>
+        <v>10.9391260562363</v>
       </c>
       <c r="L11">
-        <v>8.656019387064589</v>
+        <v>9.219624621683286</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.63846979988087</v>
+        <v>18.8654385918133</v>
       </c>
       <c r="O11">
-        <v>15.66016729264362</v>
+        <v>21.43328336155071</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.18120573457789</v>
+        <v>14.12146431954817</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.252940406150259</v>
+        <v>5.079042396701627</v>
       </c>
       <c r="E12">
-        <v>9.088321795814581</v>
+        <v>15.09921355795362</v>
       </c>
       <c r="F12">
-        <v>21.20310373240911</v>
+        <v>24.29248175863572</v>
       </c>
       <c r="G12">
-        <v>2.056269500511911</v>
+        <v>3.620532664922486</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.72883654126322</v>
+        <v>24.7118028821202</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.18900432286981</v>
+        <v>11.03197152277372</v>
       </c>
       <c r="L12">
-        <v>8.762169564242052</v>
+        <v>9.23541672085109</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.5844387614298</v>
+        <v>18.85069508259358</v>
       </c>
       <c r="O12">
-        <v>15.73620488397238</v>
+        <v>21.4300065787792</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.14462296574441</v>
+        <v>14.11173443991856</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.24436474357651</v>
+        <v>5.075862377158884</v>
       </c>
       <c r="E13">
-        <v>9.092472616335828</v>
+        <v>15.10154839195442</v>
       </c>
       <c r="F13">
-        <v>21.1663262901456</v>
+        <v>24.28879800085583</v>
       </c>
       <c r="G13">
-        <v>2.056542442570291</v>
+        <v>3.620626824818201</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.73828193160587</v>
+        <v>24.71685014205796</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.1488442589776</v>
+        <v>11.01205353254378</v>
       </c>
       <c r="L13">
-        <v>8.739401569019559</v>
+        <v>9.232007539462179</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.59606172650801</v>
+        <v>18.85385926039388</v>
       </c>
       <c r="O13">
-        <v>15.71974357604405</v>
+        <v>21.43067978827893</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.02482661618524</v>
+        <v>14.08001150144758</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.216293900296087</v>
+        <v>5.065465025163163</v>
       </c>
       <c r="E14">
-        <v>9.106124363755091</v>
+        <v>15.10921020065843</v>
       </c>
       <c r="F14">
-        <v>21.04650786400161</v>
+        <v>24.2769440142843</v>
       </c>
       <c r="G14">
-        <v>2.057434357486555</v>
+        <v>3.620935354071808</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.76941828686719</v>
+        <v>24.73341432907487</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.01725800226344</v>
+        <v>10.94679958153422</v>
       </c>
       <c r="L14">
-        <v>8.664794520828281</v>
+        <v>9.220920195114068</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.63401847849565</v>
+        <v>18.86422063067392</v>
       </c>
       <c r="O14">
-        <v>15.66638455262328</v>
+        <v>21.43299913187425</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.95107059318055</v>
+        <v>14.0605873605084</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.199020250472961</v>
+        <v>5.05907599522948</v>
       </c>
       <c r="E15">
-        <v>9.114574436077456</v>
+        <v>15.11393972044213</v>
       </c>
       <c r="F15">
-        <v>20.97321029511876</v>
+        <v>24.26980588654444</v>
       </c>
       <c r="G15">
-        <v>2.057982069658842</v>
+        <v>3.621125454687393</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.78874372959222</v>
+        <v>24.74364026932326</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.93618457545666</v>
+        <v>10.90660200929724</v>
       </c>
       <c r="L15">
-        <v>8.618821853635776</v>
+        <v>9.214152688015842</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.65730825533904</v>
+        <v>18.87059979167027</v>
       </c>
       <c r="O15">
-        <v>15.63395002783366</v>
+        <v>21.43451496965521</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.52265563547931</v>
+        <v>13.9494123418237</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.09882589670784</v>
+        <v>5.022155341676121</v>
       </c>
       <c r="E16">
-        <v>9.164330704664053</v>
+        <v>15.14160171475157</v>
       </c>
       <c r="F16">
-        <v>20.5547017302434</v>
+        <v>24.23078931515792</v>
       </c>
       <c r="G16">
-        <v>2.061142551430306</v>
+        <v>3.62223200404629</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.9032843034872</v>
+        <v>24.80346565060934</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.46433523339381</v>
+        <v>10.67278353128034</v>
       </c>
       <c r="L16">
-        <v>8.35116026497599</v>
+        <v>9.175743697798755</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.79140514032089</v>
+        <v>18.90765546846334</v>
       </c>
       <c r="O16">
-        <v>15.45189382324875</v>
+        <v>21.44466011256923</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.25474834050695</v>
+        <v>13.88136327403338</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.036297152310438</v>
+        <v>4.99923580234743</v>
       </c>
       <c r="E17">
-        <v>9.196026227652453</v>
+        <v>15.15907082035449</v>
       </c>
       <c r="F17">
-        <v>20.29941558343579</v>
+        <v>24.20854715357018</v>
       </c>
       <c r="G17">
-        <v>2.063101338888049</v>
+        <v>3.622926181577876</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.97684033236832</v>
+        <v>24.84125941949817</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.16840421290261</v>
+        <v>10.52628460866643</v>
       </c>
       <c r="L17">
-        <v>8.183184696098989</v>
+        <v>9.152522231059359</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.87425173939345</v>
+        <v>18.93083432183368</v>
       </c>
       <c r="O17">
-        <v>15.34359871562716</v>
+        <v>21.45218488158945</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.09880343697869</v>
+        <v>13.84229191803263</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.999947353946394</v>
+        <v>4.98595576775385</v>
       </c>
       <c r="E18">
-        <v>9.214680600842792</v>
+        <v>15.16930231784872</v>
       </c>
       <c r="F18">
-        <v>20.15315377558025</v>
+        <v>24.19637913620648</v>
       </c>
       <c r="G18">
-        <v>2.064235506361056</v>
+        <v>3.62333110682668</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.02031945350591</v>
+        <v>24.86339903556362</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.99581829860462</v>
+        <v>10.44091111017814</v>
       </c>
       <c r="L18">
-        <v>8.085176494201498</v>
+        <v>9.139294581203066</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.92212399590205</v>
+        <v>18.94433058269955</v>
       </c>
       <c r="O18">
-        <v>15.28255100849069</v>
+        <v>21.45699086379537</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.04568706699149</v>
+        <v>13.82907599872288</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.987574392044786</v>
+        <v>4.981442840805038</v>
       </c>
       <c r="E19">
-        <v>9.221068851203505</v>
+        <v>15.17279810327883</v>
       </c>
       <c r="F19">
-        <v>20.10373395583515</v>
+        <v>24.19236686711176</v>
       </c>
       <c r="G19">
-        <v>2.06462082682731</v>
+        <v>3.623469179682136</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.03523855856625</v>
+        <v>24.87096411412221</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.9369762285902</v>
+        <v>10.41181556023512</v>
       </c>
       <c r="L19">
-        <v>8.05175277513103</v>
+        <v>9.134838347044845</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.93837134413477</v>
+        <v>18.94892845334861</v>
       </c>
       <c r="O19">
-        <v>15.26209386124593</v>
+        <v>21.4587001493936</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.28345962069218</v>
+        <v>13.88860038611121</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.042993413926009</v>
+        <v>5.001685741442825</v>
       </c>
       <c r="E20">
-        <v>9.192608161499603</v>
+        <v>15.15719219372675</v>
       </c>
       <c r="F20">
-        <v>20.32653289012973</v>
+        <v>24.210850236778</v>
       </c>
       <c r="G20">
-        <v>2.062892048252814</v>
+        <v>3.622851700463259</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.96888809031644</v>
+        <v>24.8371946407333</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.20015236871997</v>
+        <v>10.54199497726147</v>
       </c>
       <c r="L20">
-        <v>8.201210027347598</v>
+        <v>9.1549809479276</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.86540985222038</v>
+        <v>18.92834988667679</v>
       </c>
       <c r="O20">
-        <v>15.35499837281486</v>
+        <v>21.45133438747119</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.06009241261881</v>
+        <v>14.0893278909397</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.224555571236449</v>
+        <v>5.068523230783167</v>
       </c>
       <c r="E21">
-        <v>9.102096139646779</v>
+        <v>15.10695214867661</v>
       </c>
       <c r="F21">
-        <v>21.08168189339735</v>
+        <v>24.2804002478018</v>
       </c>
       <c r="G21">
-        <v>2.057172092257084</v>
+        <v>3.620844498730436</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.76021972670959</v>
+        <v>24.72853237535981</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.05600665476064</v>
+        <v>10.9660137510908</v>
       </c>
       <c r="L21">
-        <v>8.68676541858383</v>
+        <v>9.224171873622103</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.62286132979754</v>
+        <v>18.86117046931033</v>
       </c>
       <c r="O21">
-        <v>15.6820053902563</v>
+        <v>21.43229805004221</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.55082554846972</v>
+        <v>14.2208647927296</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.339675660371377</v>
+        <v>5.111299498188883</v>
       </c>
       <c r="E22">
-        <v>9.046861076903168</v>
+        <v>15.07574894870352</v>
       </c>
       <c r="F22">
-        <v>21.57955077582553</v>
+        <v>24.33135846338503</v>
       </c>
       <c r="G22">
-        <v>2.053496459580007</v>
+        <v>3.619582730562553</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14.6350884542956</v>
+        <v>24.66109138658338</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.594188592559</v>
+        <v>11.23297921017765</v>
       </c>
       <c r="L22">
-        <v>8.991836691196191</v>
+        <v>9.270466921756192</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.46615884847266</v>
+        <v>18.81872140275479</v>
       </c>
       <c r="O22">
-        <v>15.90687376925815</v>
+        <v>21.42411595567101</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.29046708933584</v>
+        <v>14.15064162347273</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.278562929854106</v>
+        <v>5.088553748566018</v>
       </c>
       <c r="E23">
-        <v>9.07597510909685</v>
+        <v>15.09225361153436</v>
       </c>
       <c r="F23">
-        <v>21.31346609293829</v>
+        <v>24.30366085497471</v>
       </c>
       <c r="G23">
-        <v>2.055452694531324</v>
+        <v>3.620251593616561</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.70080305408253</v>
+        <v>24.69675871500465</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.3088871496353</v>
+        <v>11.09143538521545</v>
       </c>
       <c r="L23">
-        <v>8.830129693422963</v>
+        <v>9.245663556894584</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.54963522625923</v>
+        <v>18.84124434711931</v>
       </c>
       <c r="O23">
-        <v>15.78583281182194</v>
+        <v>21.42809308634141</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.2704852314415</v>
+        <v>13.88532832607538</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.039967282339405</v>
+        <v>5.000578445249057</v>
       </c>
       <c r="E24">
-        <v>9.194152124581077</v>
+        <v>15.15804093433309</v>
       </c>
       <c r="F24">
-        <v>20.31427157216235</v>
+        <v>24.20980708312204</v>
       </c>
       <c r="G24">
-        <v>2.06298664347649</v>
+        <v>3.622885355201832</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.97247959867639</v>
+        <v>24.83903104548758</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.18580666197315</v>
+        <v>10.53489589648341</v>
       </c>
       <c r="L24">
-        <v>8.193065251898869</v>
+        <v>9.153868979108932</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.86940651197923</v>
+        <v>18.92947256884439</v>
       </c>
       <c r="O24">
-        <v>15.34984081206443</v>
+        <v>21.45171740106622</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.09984817470068</v>
+        <v>13.60192748839622</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.767980200471886</v>
+        <v>4.90198696109284</v>
       </c>
       <c r="E25">
-        <v>9.337761653430315</v>
+        <v>15.23603048514671</v>
       </c>
       <c r="F25">
-        <v>19.25890976930865</v>
+        <v>24.13249296700388</v>
       </c>
       <c r="G25">
-        <v>2.071403160781363</v>
+        <v>3.625942584858864</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.30993196874168</v>
+        <v>25.00785121094307</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.88372298728701</v>
+        <v>9.892310826810693</v>
       </c>
       <c r="L25">
-        <v>7.483839037811231</v>
+        <v>9.059813817304834</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.22286511152117</v>
+        <v>19.03093096834756</v>
       </c>
       <c r="O25">
-        <v>14.92688087537831</v>
+        <v>21.49546658542589</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_134/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_134/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.39702695204629</v>
+        <v>12.1801830468922</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.826424032288462</v>
+        <v>4.555882870704164</v>
       </c>
       <c r="E2">
-        <v>15.29953210425981</v>
+        <v>9.456696378252493</v>
       </c>
       <c r="F2">
-        <v>24.09637441667071</v>
+        <v>18.50568925572288</v>
       </c>
       <c r="G2">
-        <v>3.62838158689846</v>
+        <v>2.077872188800028</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.14538524329097</v>
+        <v>15.59279095031676</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.38455174203785</v>
+        <v>13.84764734946001</v>
       </c>
       <c r="L2">
-        <v>8.995172432436362</v>
+        <v>7.056061665011397</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.11109876479216</v>
+        <v>12.49127096248801</v>
       </c>
       <c r="O2">
-        <v>21.54334494811881</v>
+        <v>14.65519382538469</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.26120973801354</v>
+        <v>11.52305899558121</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.773473187966314</v>
+        <v>4.405234512954514</v>
       </c>
       <c r="E3">
-        <v>15.34637688742034</v>
+        <v>9.545222643517373</v>
       </c>
       <c r="F3">
-        <v>24.08495657781064</v>
+        <v>18.0126280499112</v>
       </c>
       <c r="G3">
-        <v>3.630152769164435</v>
+        <v>2.082436492972922</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.24686116641715</v>
+        <v>15.80427144121619</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.019965776533571</v>
+        <v>13.0979678867207</v>
       </c>
       <c r="L3">
-        <v>8.95440440055178</v>
+        <v>6.757471695129704</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.16886546286248</v>
+        <v>12.67864303726172</v>
       </c>
       <c r="O3">
-        <v>21.58553290502056</v>
+        <v>14.49516676864885</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.17955095524031</v>
+        <v>11.10387283484218</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.740141756743833</v>
+        <v>4.309520116391666</v>
       </c>
       <c r="E4">
-        <v>15.37702445362298</v>
+        <v>9.603392634118929</v>
       </c>
       <c r="F4">
-        <v>24.08440438554046</v>
+        <v>17.71934659985462</v>
       </c>
       <c r="G4">
-        <v>3.631298933082036</v>
+        <v>2.085331131835051</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.31325041274173</v>
+        <v>15.94338562625371</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.786477531641742</v>
+        <v>12.61462901341759</v>
       </c>
       <c r="L4">
-        <v>8.930923566341594</v>
+        <v>6.570502861248906</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.20603834587882</v>
+        <v>12.79650814425682</v>
       </c>
       <c r="O4">
-        <v>21.6162277793832</v>
+        <v>14.40849749158823</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.14674492584801</v>
+        <v>10.92928590818309</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.726359121861639</v>
+        <v>4.269739991571965</v>
       </c>
       <c r="E5">
-        <v>15.38998831464046</v>
+        <v>9.628043382104345</v>
       </c>
       <c r="F5">
-        <v>24.08580511430234</v>
+        <v>17.60234263084136</v>
       </c>
       <c r="G5">
-        <v>3.631780797762531</v>
+        <v>2.086534343155264</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25.34133173382632</v>
+        <v>16.00233727127201</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.688989173312718</v>
+        <v>12.41195645045444</v>
       </c>
       <c r="L5">
-        <v>8.921752427432427</v>
+        <v>6.493510463096936</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.22161627317682</v>
+        <v>12.84526424980695</v>
       </c>
       <c r="O5">
-        <v>21.62993890028468</v>
+        <v>14.37604147732519</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.14132692871768</v>
+        <v>10.90007459300346</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.724058642837074</v>
+        <v>4.263088710938674</v>
       </c>
       <c r="E6">
-        <v>15.39216965029219</v>
+        <v>9.632193386501537</v>
       </c>
       <c r="F6">
-        <v>24.0861359223823</v>
+        <v>17.58306959153891</v>
       </c>
       <c r="G6">
-        <v>3.631861705855918</v>
+        <v>2.086735575160872</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.34605667093494</v>
+        <v>16.0122608453327</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.672662578365129</v>
+        <v>12.37796095587312</v>
       </c>
       <c r="L6">
-        <v>8.920253783893644</v>
+        <v>6.480681105979619</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.22422896333383</v>
+        <v>12.85340443203927</v>
       </c>
       <c r="O6">
-        <v>21.63228819507953</v>
+        <v>14.3708234011527</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.17910657107664</v>
+        <v>11.1015332686122</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.739956679990371</v>
+        <v>4.308986722568051</v>
       </c>
       <c r="E7">
-        <v>15.37719736553157</v>
+        <v>9.603721269187051</v>
       </c>
       <c r="F7">
-        <v>24.08441669228034</v>
+        <v>17.71775830766111</v>
       </c>
       <c r="G7">
-        <v>3.631305371717693</v>
+        <v>2.085347262528686</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.31362496754988</v>
+        <v>15.94417159814737</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.785172128143257</v>
+        <v>12.61191868539123</v>
       </c>
       <c r="L7">
-        <v>8.930798262178916</v>
+        <v>6.569467599668963</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.20624669389917</v>
+        <v>12.79716272869397</v>
       </c>
       <c r="O7">
-        <v>21.61640782563157</v>
+        <v>14.40804826252843</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.34985842724061</v>
+        <v>11.95696745038788</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.808340345221598</v>
+        <v>4.504625358266003</v>
       </c>
       <c r="E8">
-        <v>15.31529350817324</v>
+        <v>9.486420352109574</v>
       </c>
       <c r="F8">
-        <v>24.09109850293584</v>
+        <v>18.33379856870132</v>
       </c>
       <c r="G8">
-        <v>3.628980144895835</v>
+        <v>2.079427116813868</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.17952712649094</v>
+        <v>15.66374397304157</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.260887199396581</v>
+        <v>13.59398191239873</v>
       </c>
       <c r="L8">
-        <v>8.980798374245865</v>
+        <v>6.953925284610894</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.13066381376541</v>
+        <v>12.55530215952776</v>
       </c>
       <c r="O8">
-        <v>21.55689574316291</v>
+        <v>14.5975829271987</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.69689917122133</v>
+        <v>13.5033763429132</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.935673501165703</v>
+        <v>4.861493409341408</v>
       </c>
       <c r="E9">
-        <v>15.20881769026218</v>
+        <v>9.287293293145407</v>
       </c>
       <c r="F9">
-        <v>24.15531759225307</v>
+        <v>19.61103091117628</v>
       </c>
       <c r="G9">
-        <v>3.624883682320098</v>
+        <v>2.068527249267562</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.94893003983947</v>
+        <v>15.19067908786366</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.11427561583976</v>
+        <v>15.33441295041967</v>
       </c>
       <c r="L9">
-        <v>9.090802784544538</v>
+        <v>7.709195752456151</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.99590934224728</v>
+        <v>12.10258787066653</v>
       </c>
       <c r="O9">
-        <v>21.47829250164346</v>
+        <v>15.06310741606281</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.95718562148002</v>
+        <v>14.55297341960117</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.024757296909018</v>
+        <v>5.105908285309332</v>
       </c>
       <c r="E10">
-        <v>15.1396332487134</v>
+        <v>9.16077194627181</v>
       </c>
       <c r="F10">
-        <v>24.23341180183943</v>
+        <v>20.58390642461074</v>
       </c>
       <c r="G10">
-        <v>3.622153558550631</v>
+        <v>2.06092004550086</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>24.79920754001747</v>
+        <v>14.89505245956054</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.68934854755453</v>
+        <v>16.49778110578341</v>
       </c>
       <c r="L10">
-        <v>9.178410630997348</v>
+        <v>8.370139117889526</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.90503285110371</v>
+        <v>11.78198122029695</v>
       </c>
       <c r="O10">
-        <v>21.4438662614571</v>
+        <v>15.46441957171933</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.07629656798166</v>
+        <v>15.01074455968977</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.064244450728441</v>
+        <v>5.212995352697667</v>
       </c>
       <c r="E11">
-        <v>15.11011246776109</v>
+        <v>9.107735071278185</v>
       </c>
       <c r="F11">
-        <v>24.2755716969759</v>
+        <v>21.03248544578414</v>
       </c>
       <c r="G11">
-        <v>3.620971640817033</v>
+        <v>2.057539014054305</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>24.73536510279935</v>
+        <v>14.77309894269608</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.9391260562363</v>
+        <v>17.00178234054187</v>
       </c>
       <c r="L11">
-        <v>9.219624621683286</v>
+        <v>8.656019387064552</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.8654385918133</v>
+        <v>11.63846979988087</v>
       </c>
       <c r="O11">
-        <v>21.43328336155071</v>
+        <v>15.66016729264357</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.12146431954817</v>
+        <v>15.18120573457791</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.079042396701627</v>
+        <v>5.252940406150265</v>
       </c>
       <c r="E12">
-        <v>15.09921355795362</v>
+        <v>9.088321795814716</v>
       </c>
       <c r="F12">
-        <v>24.29248175863572</v>
+        <v>21.20310373240905</v>
       </c>
       <c r="G12">
-        <v>3.620532664922486</v>
+        <v>2.056269500511644</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.7118028821202</v>
+        <v>14.7288365412632</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.03197152277372</v>
+        <v>17.18900432286983</v>
       </c>
       <c r="L12">
-        <v>9.23541672085109</v>
+        <v>8.762169564242091</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.85069508259358</v>
+        <v>11.58443876142976</v>
       </c>
       <c r="O12">
-        <v>21.4300065787792</v>
+        <v>15.7362048839723</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.11173443991856</v>
+        <v>15.1446229657444</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.075862377158884</v>
+        <v>5.244364743576595</v>
       </c>
       <c r="E13">
-        <v>15.10154839195442</v>
+        <v>9.092472616335943</v>
       </c>
       <c r="F13">
-        <v>24.28879800085583</v>
+        <v>21.16632629014554</v>
       </c>
       <c r="G13">
-        <v>3.620626824818201</v>
+        <v>2.056542442570559</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.71685014205796</v>
+        <v>14.73828193160582</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.01205353254378</v>
+        <v>17.14884425897766</v>
       </c>
       <c r="L13">
-        <v>9.232007539462179</v>
+        <v>8.739401569019517</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.85385926039388</v>
+        <v>11.59606172650801</v>
       </c>
       <c r="O13">
-        <v>21.43067978827893</v>
+        <v>15.71974357604402</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.08001150144758</v>
+        <v>15.02482661618524</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.065465025163163</v>
+        <v>5.216293900296069</v>
       </c>
       <c r="E14">
-        <v>15.10921020065843</v>
+        <v>9.106124363755219</v>
       </c>
       <c r="F14">
-        <v>24.2769440142843</v>
+        <v>21.04650786400154</v>
       </c>
       <c r="G14">
-        <v>3.620935354071808</v>
+        <v>2.057434357486688</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>24.73341432907487</v>
+        <v>14.76941828686727</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.94679958153422</v>
+        <v>17.01725800226351</v>
       </c>
       <c r="L14">
-        <v>9.220920195114068</v>
+        <v>8.66479452082832</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.86422063067392</v>
+        <v>11.63401847849565</v>
       </c>
       <c r="O14">
-        <v>21.43299913187425</v>
+        <v>15.66638455262321</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.0605873605084</v>
+        <v>14.95107059318057</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.05907599522948</v>
+        <v>5.199020250473032</v>
       </c>
       <c r="E15">
-        <v>15.11393972044213</v>
+        <v>9.114574436077586</v>
       </c>
       <c r="F15">
-        <v>24.26980588654444</v>
+        <v>20.97321029511866</v>
       </c>
       <c r="G15">
-        <v>3.621125454687393</v>
+        <v>2.057982069658574</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>24.74364026932326</v>
+        <v>14.78874372959222</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.90660200929724</v>
+        <v>16.93618457545675</v>
       </c>
       <c r="L15">
-        <v>9.214152688015842</v>
+        <v>8.618821853635838</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.87059979167027</v>
+        <v>11.65730825533901</v>
       </c>
       <c r="O15">
-        <v>21.43451496965521</v>
+        <v>15.63395002783356</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.9494123418237</v>
+        <v>14.52265563547932</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.022155341676121</v>
+        <v>5.098825896707951</v>
       </c>
       <c r="E16">
-        <v>15.14160171475157</v>
+        <v>9.164330704664122</v>
       </c>
       <c r="F16">
-        <v>24.23078931515792</v>
+        <v>20.55470173024319</v>
       </c>
       <c r="G16">
-        <v>3.62223200404629</v>
+        <v>2.061142551430573</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>24.80346565060934</v>
+        <v>14.90328430348714</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.67278353128034</v>
+        <v>16.46433523339386</v>
       </c>
       <c r="L16">
-        <v>9.175743697798755</v>
+        <v>8.351160264976015</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.90765546846334</v>
+        <v>11.79140514032082</v>
       </c>
       <c r="O16">
-        <v>21.44466011256923</v>
+        <v>15.45189382324858</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.88136327403338</v>
+        <v>14.25474834050698</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.99923580234743</v>
+        <v>5.036297152310597</v>
       </c>
       <c r="E17">
-        <v>15.15907082035449</v>
+        <v>9.19602622765265</v>
       </c>
       <c r="F17">
-        <v>24.20854715357018</v>
+        <v>20.29941558343559</v>
       </c>
       <c r="G17">
-        <v>3.622926181577876</v>
+        <v>2.063101338887915</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>24.84125941949817</v>
+        <v>14.97684033236825</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.52628460866643</v>
+        <v>16.16840421290275</v>
       </c>
       <c r="L17">
-        <v>9.152522231059359</v>
+        <v>8.183184696099007</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.93083432183368</v>
+        <v>11.87425173939342</v>
       </c>
       <c r="O17">
-        <v>21.45218488158945</v>
+        <v>15.34359871562699</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.84229191803263</v>
+        <v>14.09880343697871</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.98595576775385</v>
+        <v>4.999947353946364</v>
       </c>
       <c r="E18">
-        <v>15.16930231784872</v>
+        <v>9.214680600843044</v>
       </c>
       <c r="F18">
-        <v>24.19637913620648</v>
+        <v>20.15315377558015</v>
       </c>
       <c r="G18">
-        <v>3.62333110682668</v>
+        <v>2.064235506360921</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>24.86339903556362</v>
+        <v>15.02031945350587</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.44091111017814</v>
+        <v>15.99581829860472</v>
       </c>
       <c r="L18">
-        <v>9.139294581203066</v>
+        <v>8.085176494201523</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.94433058269955</v>
+        <v>11.92212399590198</v>
       </c>
       <c r="O18">
-        <v>21.45699086379537</v>
+        <v>15.28255100849056</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.82907599872288</v>
+        <v>14.04568706699151</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.981442840805038</v>
+        <v>4.987574392045007</v>
       </c>
       <c r="E19">
-        <v>15.17279810327883</v>
+        <v>9.22106885120364</v>
       </c>
       <c r="F19">
-        <v>24.19236686711176</v>
+        <v>20.10373395583501</v>
       </c>
       <c r="G19">
-        <v>3.623469179682136</v>
+        <v>2.06462082682704</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>24.87096411412221</v>
+        <v>15.03523855856616</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.41181556023512</v>
+        <v>15.93697622859025</v>
       </c>
       <c r="L19">
-        <v>9.134838347044845</v>
+        <v>8.051752775131044</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.94892845334861</v>
+        <v>11.93837134413467</v>
       </c>
       <c r="O19">
-        <v>21.4587001493936</v>
+        <v>15.26209386124582</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.88860038611121</v>
+        <v>14.28345962069218</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.001685741442825</v>
+        <v>5.042993413926121</v>
       </c>
       <c r="E20">
-        <v>15.15719219372675</v>
+        <v>9.192608161499669</v>
       </c>
       <c r="F20">
-        <v>24.210850236778</v>
+        <v>20.3265328901296</v>
       </c>
       <c r="G20">
-        <v>3.622851700463259</v>
+        <v>2.062892048252817</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>24.8371946407333</v>
+        <v>14.96888809031634</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.54199497726147</v>
+        <v>16.20015236872006</v>
       </c>
       <c r="L20">
-        <v>9.1549809479276</v>
+        <v>8.201210027347642</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.92834988667679</v>
+        <v>11.86540985222027</v>
       </c>
       <c r="O20">
-        <v>21.45133438747119</v>
+        <v>15.3549983728147</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.0893278909397</v>
+        <v>15.06009241261878</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.068523230783167</v>
+        <v>5.224555571236356</v>
       </c>
       <c r="E21">
-        <v>15.10695214867661</v>
+        <v>9.102096139646589</v>
       </c>
       <c r="F21">
-        <v>24.2804002478018</v>
+        <v>21.08168189339731</v>
       </c>
       <c r="G21">
-        <v>3.620844498730436</v>
+        <v>2.057172092257083</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.72853237535981</v>
+        <v>14.76021972670939</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.9660137510908</v>
+        <v>17.0560066547607</v>
       </c>
       <c r="L21">
-        <v>9.224171873622103</v>
+        <v>8.686765418583812</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.86117046931033</v>
+        <v>11.62286132979747</v>
       </c>
       <c r="O21">
-        <v>21.43229805004221</v>
+        <v>15.6820053902562</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.2208647927296</v>
+        <v>15.55082554846974</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.111299498188883</v>
+        <v>5.339675660371344</v>
       </c>
       <c r="E22">
-        <v>15.07574894870352</v>
+        <v>9.046861076903122</v>
       </c>
       <c r="F22">
-        <v>24.33135846338503</v>
+        <v>21.5795507758255</v>
       </c>
       <c r="G22">
-        <v>3.619582730562553</v>
+        <v>2.053496459580276</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.66109138658338</v>
+        <v>14.6350884542956</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.23297921017765</v>
+        <v>17.59418859255904</v>
       </c>
       <c r="L22">
-        <v>9.270466921756192</v>
+        <v>8.991836691196278</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.81872140275479</v>
+        <v>11.46615884847262</v>
       </c>
       <c r="O22">
-        <v>21.42411595567101</v>
+        <v>15.9068737692581</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.15064162347273</v>
+        <v>15.29046708933585</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.088553748566018</v>
+        <v>5.278562929854118</v>
       </c>
       <c r="E23">
-        <v>15.09225361153436</v>
+        <v>9.075975109096731</v>
       </c>
       <c r="F23">
-        <v>24.30366085497471</v>
+        <v>21.31346609293832</v>
       </c>
       <c r="G23">
-        <v>3.620251593616561</v>
+        <v>2.055452694531325</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.69675871500465</v>
+        <v>14.70080305408253</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.09143538521545</v>
+        <v>17.30888714963533</v>
       </c>
       <c r="L23">
-        <v>9.245663556894584</v>
+        <v>8.830129693422986</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.84124434711931</v>
+        <v>11.54963522625923</v>
       </c>
       <c r="O23">
-        <v>21.42809308634141</v>
+        <v>15.78583281182195</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.88532832607538</v>
+        <v>14.2704852314415</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.000578445249057</v>
+        <v>5.039967282339493</v>
       </c>
       <c r="E24">
-        <v>15.15804093433309</v>
+        <v>9.194152124581201</v>
       </c>
       <c r="F24">
-        <v>24.20980708312204</v>
+        <v>20.31427157216227</v>
       </c>
       <c r="G24">
-        <v>3.622885355201832</v>
+        <v>2.062986643476493</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>24.83903104548758</v>
+        <v>14.97247959867632</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.53489589648341</v>
+        <v>16.18580666197318</v>
       </c>
       <c r="L24">
-        <v>9.153868979108932</v>
+        <v>8.19306525189881</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.92947256884439</v>
+        <v>11.86940651197916</v>
       </c>
       <c r="O24">
-        <v>21.45171740106622</v>
+        <v>15.34984081206436</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.60192748839622</v>
+        <v>13.09984817470068</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.90198696109284</v>
+        <v>4.767980200471965</v>
       </c>
       <c r="E25">
-        <v>15.23603048514671</v>
+        <v>9.337761653430318</v>
       </c>
       <c r="F25">
-        <v>24.13249296700388</v>
+        <v>19.25890976930859</v>
       </c>
       <c r="G25">
-        <v>3.625942584858864</v>
+        <v>2.071403160781229</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.00785121094307</v>
+        <v>15.30993196874165</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.892310826810693</v>
+        <v>14.88372298728698</v>
       </c>
       <c r="L25">
-        <v>9.059813817304834</v>
+        <v>7.483839037811229</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.03093096834756</v>
+        <v>12.22286511152114</v>
       </c>
       <c r="O25">
-        <v>21.49546658542589</v>
+        <v>14.92688087537826</v>
       </c>
     </row>
   </sheetData>
